--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_1_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_1_sawtooth_05_.xlsx
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -571,55 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>22.6600000000001</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001580467294158505</v>
+        <v>0.02748020294164433</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003906969243666525</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.110223024625157e-16</v>
-      </c>
+        <v>0.04517928539833432</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>6.24150586588299</v>
+        <v>4.386803861447532</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.152639356947489, 10.330372374818491]</t>
+          <t>[0.02139438487797385, 8.752213338017091]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.003023017405777928</v>
+        <v>0.04890275104014496</v>
       </c>
       <c r="N2" t="n">
-        <v>0.003023017405777928</v>
+        <v>0.04890275104014496</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.345947603339772</v>
+        <v>-1.169842309444848</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.1384214258669267, -0.5534737808126167]</t>
+          <t>[-2.528368862348542, 0.1886842434588467]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.001010839554351994</v>
+        <v>0.09089197372654456</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001010839554351994</v>
+        <v>0.1817839474530891</v>
       </c>
       <c r="S2" t="n">
-        <v>13.18676956406089</v>
+        <v>11.57591124250821</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[10.78557620483954, 15.587962923282237]</t>
+          <t>[9.305176132533914, 13.846646352482496]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.712712712712715</v>
+        <v>4.218978978978999</v>
       </c>
       <c r="X2" t="n">
-        <v>1.93793793793794</v>
+        <v>-0.6804804804804823</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.48748748748749</v>
+        <v>9.118438438438481</v>
       </c>
     </row>
     <row r="3">
@@ -643,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -654,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.23000000000019</v>
+        <v>23.85000000000029</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>5.443924523396149e-07</v>
+        <v>5.41762125096934e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>8.957092241896188e-06</v>
+        <v>0.0005980838859669067</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>6.383564787337273</v>
+        <v>5.192658876180018</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.5263554515644113, 9.240774123110135]</t>
+          <t>[2.688103102208717, 7.697214650151319]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.547143056113143e-05</v>
+        <v>5.830105142079489e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>3.094286112226285e-05</v>
+        <v>0.0001166021028415898</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.106947561625232</v>
+        <v>-0.01257894956392303</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-1.6101055441821561, -0.6037895790683088]</t>
+          <t>[-0.6478159025420389, 0.6226580034141929]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.064520318367791e-05</v>
+        <v>0.9689362653859799</v>
       </c>
       <c r="R3" t="n">
-        <v>4.129040636735581e-05</v>
+        <v>0.9689362653859799</v>
       </c>
       <c r="S3" t="n">
-        <v>11.31553983503722</v>
+        <v>11.24578940308216</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[9.684316081697112, 12.946763588377323]</t>
+          <t>[9.639403660102694, 12.852175146061626]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>4.092572572572607</v>
+        <v>0.04774774774774571</v>
       </c>
       <c r="X3" t="n">
-        <v>2.232312312312332</v>
+        <v>-2.363513513513543</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.952832832832882</v>
+        <v>2.459009009009034</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_1_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_1_sawtooth_05_.xlsx
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -571,53 +571,55 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.6600000000001</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02748020294164433</v>
+        <v>0.01169131236158583</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04517928539833432</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>0.03892748469855493</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.386803861447532</v>
+        <v>5.23561914219188</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.02139438487797385, 8.752213338017091]</t>
+          <t>[1.1399950190992865, 9.331243265284474]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.04890275104014496</v>
+        <v>0.01260095954202356</v>
       </c>
       <c r="N2" t="n">
-        <v>0.04890275104014496</v>
+        <v>0.01260095954202356</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.169842309444848</v>
+        <v>-1.74847398938531</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.528368862348542, 0.1886842434588467]</t>
+          <t>[-2.8051057527548506, -0.69184222601577]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.09089197372654456</v>
+        <v>0.001345697305918048</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1817839474530891</v>
+        <v>0.002685481859363126</v>
       </c>
       <c r="S2" t="n">
-        <v>11.57591124250821</v>
+        <v>13.71760108975415</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[9.305176132533914, 13.846646352482496]</t>
+          <t>[11.315231226384029, 16.11997095312428]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.218978978978999</v>
+        <v>6.122122122122121</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.6804804804804823</v>
+        <v>2.422422422422421</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.118438438438481</v>
+        <v>9.821821821821821</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,53 +654,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.85000000000029</v>
+        <v>23.16000000000018</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>5.41762125096934e-05</v>
+        <v>0.001718584023431835</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0005980838859669067</v>
+        <v>0.0191866897590718</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.192658876180018</v>
+        <v>4.331267627977319</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.688103102208717, 7.697214650151319]</t>
+          <t>[1.3034714161083336, 7.359063839846305]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>5.830105142079489e-05</v>
+        <v>0.005206844075326345</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0001166021028415898</v>
+        <v>0.01041368815065269</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.01257894956392303</v>
+        <v>-1.25789495639231</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.6478159025420389, 0.6226580034141929]</t>
+          <t>[-2.0755266780473107, -0.44026323473730855]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.9689362653859799</v>
+        <v>0.002685481859363126</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9689362653859799</v>
+        <v>0.002685481859363126</v>
       </c>
       <c r="S3" t="n">
-        <v>11.24578940308216</v>
+        <v>11.90165073945416</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[9.639403660102694, 12.852175146061626]</t>
+          <t>[10.212193552444674, 13.591107926463643]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.04774774774774571</v>
+        <v>4.636636636636673</v>
       </c>
       <c r="X3" t="n">
-        <v>-2.363513513513543</v>
+        <v>1.622822822822837</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.459009009009034</v>
+        <v>7.65045045045051</v>
       </c>
     </row>
   </sheetData>
